--- a/Excel2Bytes/Save/Table/Languages.xlsx
+++ b/Excel2Bytes/Save/Table/Languages.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
@@ -537,6 +537,66 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>初阶{0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>中阶{0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>高阶{0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>精英{0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>专家{0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>大师{0}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0"/>

--- a/Excel2Bytes/Save/Table/Languages.xlsx
+++ b/Excel2Bytes/Save/Table/Languages.xlsx
@@ -3,10 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="cn" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="tw" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="en" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" fullPrecision="0" calcOnSave="0" concurrentCalc="0"/>
@@ -414,7 +416,7 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -478,120 +480,120 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>连接出错，请检查您的网络！</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>初始化参数请求失败，请检查您的网络！{0}</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>获取版本信息失败，请检查您的网络！{0}</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>文件:{0}/{1}</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>下载速度:{0}</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>拉取服务器列表失败，请稍后再试！</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>初阶{0}</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>中阶{0}</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>高阶{0}</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="0" t="inlineStr">
         <is>
           <t>精英{0}</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>专家{0}</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="0" t="inlineStr">
         <is>
           <t>大师{0}</t>
         </is>
@@ -602,4 +604,383 @@
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>uint</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>编号</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>文本</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>连接出错，请检查您的网络！</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>初始化参数请求失败，请检查您的网络！{0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>获取版本信息失败，请检查您的网络！{0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>文件:{0}/{1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>下载速度:{0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>拉取服务器列表失败，请稍后再试！</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>初阶{0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>中阶{0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>高阶{0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>精英{0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>专家{0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>大师{0}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <cols>
+    <col width="51.625" customWidth="1" style="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>uint</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>编号</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>文本</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>连接出错，请检查您的网络！</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>初始化参数请求失败，请检查您的网络！{0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>获取版本信息失败，请检查您的网络！{0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>文件:{0}/{1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>下载速度:{0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>拉取服务器列表失败，请稍后再试！</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>初阶{0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>中阶{0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>高阶{0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>精英{0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>专家{0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>大师{0}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
 </file>